--- a/biology/Médecine/Émile_Moure/Émile_Moure.xlsx
+++ b/biology/Médecine/Émile_Moure/Émile_Moure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89mile_Moure</t>
+          <t>Émile_Moure</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Gabriel Moure dit Émile Moure est un médecin français né le 1er août 1855 à Bordeaux et mort le 28 novembre 1941 à Cannes (Alpes-Maritimes). Il est à l'origine de l'oto-rhino-laryngologie (ORL)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Gabriel Moure dit Émile Moure est un médecin français né le 1er août 1855 à Bordeaux et mort le 28 novembre 1941 à Cannes (Alpes-Maritimes). Il est à l'origine de l'oto-rhino-laryngologie (ORL).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89mile_Moure</t>
+          <t>Émile_Moure</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Émile Moure fait plusieurs séjours hors de France (Allemagne, Autriche, Russie et Grande-Bretagne). Il est l'un des premiers ORL à exercer son activité dans les trois branches de la nouvelle discipline[2]. En 1880, il décide d'implanter en Gironde son établissement d'enseignement libre d'ORL (l'actuelle clinique Saint-Augustin), le premier dans l'Hexagone[3]. Il fonde aussi à Bordeaux en 1880 la Revue mensuelle de Laryngologie, d'Otologie et de Rhinologie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Émile Moure fait plusieurs séjours hors de France (Allemagne, Autriche, Russie et Grande-Bretagne). Il est l'un des premiers ORL à exercer son activité dans les trois branches de la nouvelle discipline. En 1880, il décide d'implanter en Gironde son établissement d'enseignement libre d'ORL (l'actuelle clinique Saint-Augustin), le premier dans l'Hexagone. Il fonde aussi à Bordeaux en 1880 la Revue mensuelle de Laryngologie, d'Otologie et de Rhinologie.
 Peu de spécialistes ont à l'époque la double compétence oto-laryngologique, la plupart étant des otologistes. Émile Moure est l'un des premiers ORL de l’époque, comme Baratoux à Paris, à revendiquer des compétences dans les deux branches de la nouvelle spécialité.
-Devant l’absence de reconnaissance officielle de l’ORL, la formation des futurs spécialistes est laissée aux initiatives privées, comme la Société française d'otologie et de laryngologie créée le 21 septembre 1882, à l’initiative d'Émile Moure[4]. La société changea de nom en 1892 pour devenir Société française d’otologie, de laryngologie et de rhinologie, faisant officiellement état du troisième pilier de l’ORL.
-Le premier enseignement officiel de l'ORL en France fut créé à Bordeaux sous la forme d'une « charge de cours » d'ORL, en 1891. Puis Émile Moure devint titulaire de la première chaire d'ORL créée en France, en 1913. Il publia plusieurs traités intéressant les différents domaines de l’ORL[5].
+Devant l’absence de reconnaissance officielle de l’ORL, la formation des futurs spécialistes est laissée aux initiatives privées, comme la Société française d'otologie et de laryngologie créée le 21 septembre 1882, à l’initiative d'Émile Moure. La société changea de nom en 1892 pour devenir Société française d’otologie, de laryngologie et de rhinologie, faisant officiellement état du troisième pilier de l’ORL.
+Le premier enseignement officiel de l'ORL en France fut créé à Bordeaux sous la forme d'une « charge de cours » d'ORL, en 1891. Puis Émile Moure devint titulaire de la première chaire d'ORL créée en France, en 1913. Il publia plusieurs traités intéressant les différents domaines de l’ORL.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89mile_Moure</t>
+          <t>Émile_Moure</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son fils Paul Moure est chirurgien des hôpitaux de Paris et reconnu pour ses travaux sur les greffes vasculaires. Son gendre Georges Portmann est connu dans le domaine de l'oto-rhino-laryngologie.
-Son petit-fils Michel Portmann est connu comme un spécialistes de l'oto-rhino-laryngologie[6]. Il a été professeur de médecine à l'université de Bordeaux et chercheur, spécialiste aussi en oto-rhino-laryngologie et pionnier de la micro-chirurgie de l'oreille (l'électrocochléographie)[7]. Il sera enseignant - agrégé en 1955, titulaire de la chaire créée par son aïeul en 1978, professeur honoraire de l'université Bordeaux-II - et de chercheur spécialisé dans le traitement des troubles de la communication. Il est à l'origine du Laboratoire d'audiologie expérimentale (Inserm) de Bordeaux[3]. Sa femme Claudine Portmann (24 septembre 1924 - 21 janvier 2008) fut une figure de l’audiologie.
+Son petit-fils Michel Portmann est connu comme un spécialistes de l'oto-rhino-laryngologie. Il a été professeur de médecine à l'université de Bordeaux et chercheur, spécialiste aussi en oto-rhino-laryngologie et pionnier de la micro-chirurgie de l'oreille (l'électrocochléographie). Il sera enseignant - agrégé en 1955, titulaire de la chaire créée par son aïeul en 1978, professeur honoraire de l'université Bordeaux-II - et de chercheur spécialisé dans le traitement des troubles de la communication. Il est à l'origine du Laboratoire d'audiologie expérimentale (Inserm) de Bordeaux. Sa femme Claudine Portmann (24 septembre 1924 - 21 janvier 2008) fut une figure de l’audiologie.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89mile_Moure</t>
+          <t>Émile_Moure</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ http://cths.fr/an/prosopo.php?id=1342
